--- a/KeysPlusAutomation/Keys/ExcelData/InputData.xlsx
+++ b/KeysPlusAutomation/Keys/ExcelData/InputData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npodduturi\Desktop\Manu\KeysPlusAutomation\KeysPlusAutomation\Keys\ExcelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="783"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" tabRatio="783"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
     <sheet name="ServiceProvider" sheetId="8" r:id="rId17"/>
     <sheet name="WebElement" sheetId="9" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3575,13 +3570,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3953,36 +3955,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3992,7 +3994,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4005,38 +4007,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4049,36 +4051,37 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4140,7 +4143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4172,10 +4175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4207,7 +4209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4383,11 +4384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4443,7 +4444,7 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="83" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4466,7 +4467,7 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="83" t="s">
         <v>652</v>
       </c>
     </row>
@@ -4594,7 +4595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4751,7 +4752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4883,7 +4884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5903,7 +5904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -6700,7 +6701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI54"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
@@ -7413,7 +7414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -7739,7 +7740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7894,7 +7895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8277,7 +8278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8401,7 +8402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -8606,7 +8607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
@@ -9411,7 +9412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G2:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9444,10 +9445,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView topLeftCell="P26" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
@@ -10678,7 +10679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB110"/>
   <sheetViews>
     <sheetView topLeftCell="A86" workbookViewId="0">
@@ -11915,7 +11916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12199,7 +12200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -12473,7 +12474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
